--- a/imhr/dist/roi/output/data/2691_bounds.xlsx
+++ b/imhr/dist/roi/output/data/2691_bounds.xlsx
@@ -1,37 +1,198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>roi</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>shape_d</t>
+  </si>
+  <si>
+    <t>valence</t>
+  </si>
+  <si>
+    <t>meanvalence</t>
+  </si>
+  <si>
+    <t>meanarousal</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>behavior</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>2691</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>FREEHAND</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>3.039999962</t>
+  </si>
+  <si>
+    <t>5.849999905</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>protest</t>
+  </si>
+  <si>
+    <t>(1024, 768)</t>
+  </si>
+  <si>
+    <t>rotated</t>
+  </si>
+  <si>
+    <t>26911rotated</t>
+  </si>
+  <si>
+    <t>26912rotated</t>
+  </si>
+  <si>
+    <t>26913rotated</t>
+  </si>
+  <si>
+    <t>26914rotated</t>
+  </si>
+  <si>
+    <t>26915rotated</t>
+  </si>
+  <si>
+    <t>26916rotated</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +207,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -353,291 +523,427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>x0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>y0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>x1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>y1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>roi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>shape_d</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>meanvalence</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>meanarousal</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>behavior</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>resolution</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>position</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>uuid</t>
-        </is>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>848</v>
-      </c>
-      <c r="B2" t="n">
-        <v>703</v>
-      </c>
-      <c r="C2" t="n">
-        <v>832</v>
-      </c>
-      <c r="D2" t="n">
-        <v>713</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2691</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>949</v>
+      </c>
+      <c r="B2">
+        <v>497</v>
+      </c>
+      <c r="C2">
+        <v>940</v>
+      </c>
+      <c r="D2">
+        <v>371</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>FREEHAND</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>3.039999962</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>5.849999905</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>throw</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>rock</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>protest</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>(1024, 768)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>26911center</t>
-        </is>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>960</v>
-      </c>
-      <c r="B3" t="n">
-        <v>371</v>
-      </c>
-      <c r="C3" t="n">
-        <v>945</v>
-      </c>
-      <c r="D3" t="n">
-        <v>383</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2691</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>847</v>
+      </c>
+      <c r="B3">
+        <v>372</v>
+      </c>
+      <c r="C3">
+        <v>827</v>
+      </c>
+      <c r="D3">
+        <v>322</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>FREEHAND</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>3.039999962</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>5.849999905</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>ready</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>rock</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>protest</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>(1024, 768)</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>26912center</t>
-        </is>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>1247</v>
+      </c>
+      <c r="B4">
+        <v>1039</v>
+      </c>
+      <c r="C4">
+        <v>670</v>
+      </c>
+      <c r="D4">
+        <v>849</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>1471</v>
+      </c>
+      <c r="B5">
+        <v>507</v>
+      </c>
+      <c r="C5">
+        <v>448</v>
+      </c>
+      <c r="D5">
+        <v>156</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>1463</v>
+      </c>
+      <c r="B6">
+        <v>841</v>
+      </c>
+      <c r="C6">
+        <v>438</v>
+      </c>
+      <c r="D6">
+        <v>817</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>448</v>
+      </c>
+      <c r="B7">
+        <v>923</v>
+      </c>
+      <c r="C7">
+        <v>1471</v>
+      </c>
+      <c r="D7">
+        <v>517</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>